--- a/FedEXCIL/src/main/resources/FedExCILTestResult.xlsx
+++ b/FedEXCIL/src/main/resources/FedExCILTestResult.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>FileName</t>
   </si>
@@ -245,6 +245,66 @@
   </si>
   <si>
     <t>32483160</t>
+  </si>
+  <si>
+    <t>32948249</t>
+  </si>
+  <si>
+    <t>32948250</t>
+  </si>
+  <si>
+    <t>32948251</t>
+  </si>
+  <si>
+    <t>32948252</t>
+  </si>
+  <si>
+    <t>32948253</t>
+  </si>
+  <si>
+    <t>32948254</t>
+  </si>
+  <si>
+    <t>32948255</t>
+  </si>
+  <si>
+    <t>32948258</t>
+  </si>
+  <si>
+    <t>32948259</t>
+  </si>
+  <si>
+    <t>32948260</t>
+  </si>
+  <si>
+    <t>32948286</t>
+  </si>
+  <si>
+    <t>32948287</t>
+  </si>
+  <si>
+    <t>32948288</t>
+  </si>
+  <si>
+    <t>32948289</t>
+  </si>
+  <si>
+    <t>32948290</t>
+  </si>
+  <si>
+    <t>32948291</t>
+  </si>
+  <si>
+    <t>32948292</t>
+  </si>
+  <si>
+    <t>32948293</t>
+  </si>
+  <si>
+    <t>32948294</t>
+  </si>
+  <si>
+    <t>32948295</t>
   </si>
 </sst>
 </file>
@@ -291,17 +351,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,10 +375,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -476,7 +536,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -485,13 +545,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -501,7 +561,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -510,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -529,12 +589,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -565,7 +625,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -584,7 +644,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -596,8 +656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -622,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -630,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -638,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -646,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -654,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -662,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -670,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -678,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -686,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -694,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -728,6 +788,6 @@
       <c r="B16" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>